--- a/assets/verificationResponse.xlsx
+++ b/assets/verificationResponse.xlsx
@@ -11,87 +11,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
-  <si>
-    <t>Reg. No</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Tests</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>RC6230045180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUREKHA VISHNU SHINDE </t>
-  </si>
-  <si>
-    <t>ICICI Package 1 (Male/ Female)</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>RC6230045179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARJUN VISHNU SHINDE </t>
-  </si>
-  <si>
-    <t>RC6230045177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHUBHANGI ARJUN SHINDE </t>
-  </si>
-  <si>
-    <t>RC6230045172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRAGYA CHAUDHARI </t>
-  </si>
-  <si>
-    <t>RC6230045168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTAN NILESH KHADAGE </t>
-  </si>
-  <si>
-    <t>RC6230045165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NILESH ASHOK KHADAGE </t>
-  </si>
-  <si>
-    <t>RC6230045164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMALJITH T R </t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>RC6230045161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VINAMRA CHOUDHARY </t>
-  </si>
-  <si>
-    <t>RC6230045122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIRENDRA KUMAR PANDEY </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Booking ID</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Booking Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>Visit Type</t>
+  </si>
+  <si>
+    <t>Appointment Date</t>
+  </si>
+  <si>
+    <t>Appointment Time</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Update On</t>
   </si>
 </sst>
 </file>
@@ -468,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:S1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,185 +466,44 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>44949</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>700</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>44949</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>700</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>44949</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>700</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>44949</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>700</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>44949</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>700</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="S1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7">
-        <v>44949</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>700</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>44949</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>700</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>44949</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>700</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>44945</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>700</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
